--- a/server/ZeeNews_Video.xlsx
+++ b/server/ZeeNews_Video.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Heading</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>https://zeenews.india.com/video/news/world-cup-2023-gautam-gambhir-praises-yuvraj-singh-2670569.html</t>
+  </si>
+  <si>
+    <t>India will teach a lesson to Justin Trudeau!</t>
+  </si>
+  <si>
+    <t>The enmity that Canadian Prime Minister Justin Trudeau has expressed towards IndiaIndia's anger has not subsided yet, now India has taken another diplomatic action against Justin Trudeau.Now more than 41 Canadian politicians have gone back to India. Canada was feeling that itsAfter softening, India's anger will subside but till then Judo has been given a signal in India.won't leave until thenCanadian Prime Minister Justin TrudeauThe mistake of supporting Pakistani terrorists is such a big mistake from India's point of view that India shouldCanada is in no mood to support IndiaAnother diplomatic strike has been done to force the calendar politician in India to return to his country.One two or 10 not book in india 41 of canadaThey have been asked to return to India and have a deadline of 10th October.Canada did not have 62 kingdoms and 66% of themMinistry of External Affairs has given orders to reduce excessive politics, meaning Canada in India after October 10IndiaThe number of Canadian politicians is more than the number of Indian politicians present in Canada and it is necessary to make it work.They have informed tha in Indian Government tha there should be provisionAnd in Ranking Equivalence and in Mutual Diplomatic PresenceTheir Numbers Are Much Very Much Higher Than Ours in CanadaThe details of this are being worked out but as there will be a reductionOn September 21, the Foreign Ministry told Canada that its country's politicalThey are in large numbers and do the same work but not in Canada. When not, then in India, extra politics is seen in the country.The Indian government has issued a notice to Canada on October 10.If they live in India, their diplomatic immunity should be abolished.This means that those 41 people who used to get political exemption will not get it after 10th.India'sbetween india and canada</t>
+  </si>
+  <si>
+    <t>India asked 41 Canadian diplomats to return by October 10. America is also intervening and saying that they are in touch with India. We have spoken to the Indian government and urged them to cooperate with Canada's investigation. Big action by the Indian government after Canada's baseless allegations on the murder of terrorist Nijjar. 41 Canadian diplomats asked to return by October 10.</t>
+  </si>
+  <si>
+    <t>https://zeenews.india.com/video/news/india-will-teach-a-lesson-to-justin-trudeau-2670533.html</t>
   </si>
 </sst>
 </file>
@@ -382,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,9 +428,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
